--- a/Resultados/Mercado mundial - Aguacates.xlsx
+++ b/Resultados/Mercado mundial - Aguacates.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mexico" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Colombia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Dominican Republic" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Peru" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Indonesia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colombia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="República Dominicana" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perú" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Colombia'!$B$12:$B$73</f>
+              <f>'Colombia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Colombia'!$C$12:$C$73</f>
+              <f>'Colombia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Dominican Republic'!$B$12:$B$73</f>
+              <f>'República Dominicana'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dominican Republic'!$C$12:$C$73</f>
+              <f>'República Dominicana'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Peru'!$B$12:$B$73</f>
+              <f>'Perú'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Peru'!$C$12:$C$73</f>
+              <f>'Perú'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>954689</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>10.9633</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>10466560.04</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>10.9633</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3473789.44</v>
@@ -2160,10 +2160,10 @@
         <v>916537</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>10.4031</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9534798.17</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>10.4031</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3101131.93</v>
@@ -2182,10 +2182,10 @@
         <v>851337</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>10.3463</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>8808196.949999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>10.3463</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3216546.39</v>
@@ -2204,10 +2204,10 @@
         <v>808348</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>10.1835</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>8231790.32</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>10.1835</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2906207.29</v>
@@ -2226,10 +2226,10 @@
         <v>752103</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>9.6693</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7272277.55</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>9.6693</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2656270.79</v>
@@ -2248,10 +2248,10 @@
         <v>729957</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>9.429399999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6883084.01</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>9.429399999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2552610.1</v>
@@ -2270,10 +2270,10 @@
         <v>674598</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9.455399999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6378617.23</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>9.455399999999999</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2152377.81</v>
@@ -2292,10 +2292,10 @@
         <v>666379</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>9.0488</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6029954.01</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>9.0488</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1996493.22</v>
@@ -2314,10 +2314,10 @@
         <v>608822</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>9.0441</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>5506251.37</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>9.0441</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1794898.59</v>
@@ -2336,10 +2336,10 @@
         <v>562060</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>9.059100000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>5091783.82</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>9.059100000000001</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1551092.62</v>
@@ -2358,10 +2358,10 @@
         <v>521090</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>8.763999999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>4566843.53</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>8.763999999999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1282727</v>
@@ -2380,10 +2380,10 @@
         <v>483539</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>8.9718</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4338207.41</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>8.9718</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1127677</v>
@@ -2402,10 +2402,10 @@
         <v>467477</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4092747.23</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>8.755000000000001</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>950008</v>
@@ -2424,10 +2424,10 @@
         <v>452272</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>8.406000000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3801778.4</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>8.406000000000001</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>902580</v>
@@ -2446,10 +2446,10 @@
         <v>427066</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8.974</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3832478.31</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>8.974</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>901642</v>
@@ -2468,10 +2468,10 @@
         <v>410738</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>8.1983</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3367358.28</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>8.1983</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>752167</v>
@@ -2490,10 +2490,10 @@
         <v>401301</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>8.7639</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3516967.56</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>8.7639</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>780372</v>
@@ -2512,10 +2512,10 @@
         <v>384781</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9.284799999999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3572593.26</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9.284799999999999</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>614180</v>
@@ -2534,10 +2534,10 @@
         <v>372913</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>8.9909</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>3352809.31</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>8.9909</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>665593</v>
@@ -2556,10 +2556,10 @@
         <v>366842</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8.6259</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3164334.91</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8.6259</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>492896</v>
@@ -2578,10 +2578,10 @@
         <v>354967</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8.793799999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>3121498.33</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8.793799999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>432298</v>
@@ -2600,10 +2600,10 @@
         <v>338756</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8.688600000000001</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2943305.67</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8.688600000000001</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>406555</v>
@@ -2622,10 +2622,10 @@
         <v>322465</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8.567</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2762554.38</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>8.567</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>323649</v>
@@ -2644,10 +2644,10 @@
         <v>329358</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8.214799999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2705626.78</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>8.214799999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>346364.12</v>
@@ -2666,10 +2666,10 @@
         <v>307633</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8.029300000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2470079.92</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8.029300000000001</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>269777.44</v>
@@ -2688,10 +2688,10 @@
         <v>294716</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>8.050600000000001</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2372649.61</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>8.050600000000001</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>306643.03</v>
@@ -2710,10 +2710,10 @@
         <v>275885</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.9784</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2201120.03</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7.9784</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>250293.01</v>
@@ -2732,10 +2732,10 @@
         <v>296486</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7.543600000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2236581.5</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7.543600000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>257096</v>
@@ -2754,10 +2754,10 @@
         <v>294664</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7.2574</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2138499.3</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7.2574</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>211518</v>
@@ -2776,10 +2776,10 @@
         <v>296854</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>7.0375</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2089121.13</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>7.0375</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>187649</v>
@@ -2798,10 +2798,10 @@
         <v>288274</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>6.861</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1977851.12</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>6.861</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>150413</v>
@@ -2820,10 +2820,10 @@
         <v>303494</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7.0668</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2144738.44</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7.0668</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>188601</v>
@@ -2842,10 +2842,10 @@
         <v>297402</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>6.9173</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2057215.38</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>6.9173</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>172361</v>
@@ -2864,10 +2864,10 @@
         <v>285789</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6.4778</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1851282.29</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6.4778</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>148551</v>
@@ -2886,10 +2886,10 @@
         <v>269795</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6.2137</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1676413</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6.2137</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>124961</v>
@@ -2908,10 +2908,10 @@
         <v>286367</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>6.660100000000001</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1907246</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>6.660100000000001</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>112784</v>
@@ -2930,10 +2930,10 @@
         <v>259499</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>7.0329</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1825021</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>7.0329</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>133921</v>
@@ -2952,10 +2952,10 @@
         <v>265006</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>7.4001</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1961073</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>7.4001</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>119001</v>
@@ -2974,10 +2974,10 @@
         <v>271093</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6.4659</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1752860</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6.4659</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>100511</v>
@@ -2996,10 +2996,10 @@
         <v>217819</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7.630100000000001</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1661982</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7.630100000000001</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>87757</v>
@@ -3018,10 +3018,10 @@
         <v>214326</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7.8201</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1676042</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7.8201</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>80684</v>
@@ -3040,10 +3040,10 @@
         <v>208953</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7.965100000000001</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1664338</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7.965100000000001</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>66404</v>
@@ -3062,10 +3062,10 @@
         <v>201459</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7.6674</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1544661</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>7.6674</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>51858</v>
@@ -3084,10 +3084,10 @@
         <v>188389</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8.3756</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1577865</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8.3756</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>45196</v>
@@ -3106,10 +3106,10 @@
         <v>177163</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7.6128</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1348699</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7.6128</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>47526</v>
@@ -3128,10 +3128,10 @@
         <v>181046</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7.7828</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1409038</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>7.7828</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>39959</v>
@@ -3150,10 +3150,10 @@
         <v>172553</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7.811</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1347809</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7.811</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>32621</v>
@@ -3172,10 +3172,10 @@
         <v>153171</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.358600000000001</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1280299</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8.358600000000001</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>23203</v>
@@ -3194,10 +3194,10 @@
         <v>148422</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.3765</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1243261</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.3765</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>22247</v>
@@ -3216,10 +3216,10 @@
         <v>141484</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.341700000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1180212</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.341700000000001</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>17972</v>
@@ -3238,10 +3238,10 @@
         <v>133144</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.7796</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1168951</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.7796</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>13940</v>
@@ -3260,10 +3260,10 @@
         <v>124534</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.025700000000001</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1124012</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.025700000000001</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>12527</v>
@@ -3282,10 +3282,10 @@
         <v>116189</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.3536</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1086786</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.3536</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>8405</v>
@@ -3304,10 +3304,10 @@
         <v>113730</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9.0535</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1029650</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9.0535</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>8146</v>
@@ -3326,10 +3326,10 @@
         <v>107324</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.3682</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1005429</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.3682</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>6784</v>
@@ -3348,10 +3348,10 @@
         <v>102385</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>9.3805</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>960427</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>9.3805</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>6680</v>
@@ -3370,10 +3370,10 @@
         <v>97540</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>9.688700000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>945037</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>9.688700000000001</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>5728</v>
@@ -3391,10 +3391,10 @@
         <v>93189</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>9.4918</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>884536</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>9.4918</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>13345</v>
@@ -3412,10 +3412,10 @@
         <v>89261</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9.603200000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>857193</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9.603200000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3014</v>
@@ -3433,10 +3433,10 @@
         <v>85792</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.1911</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>788522</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.1911</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>4128</v>
@@ -3454,10 +3454,10 @@
         <v>84289</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.3406</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>787311</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.3406</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3464</v>
@@ -3475,10 +3475,10 @@
         <v>81377</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9.183200000000001</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>747298</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9.183200000000001</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1983</v>
@@ -3496,10 +3496,10 @@
         <v>78690</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9.1035</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>716353</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9.1035</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2088</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>República Dominicana</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Haití</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sudáfrica</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>República Dominicana</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>253309</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>11.738</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2973344.42</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>11.738</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5031,10 @@
         <v>236132</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>10.7597</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2540715.37</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>10.7597</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5051,10 @@
         <v>226534</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>10.784</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2442944.64</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>10.784</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5071,10 @@
         <v>224422</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>10.6667</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2393848.57</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>10.6667</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5091,10 +5091,10 @@
         <v>215942</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>10.6551</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2300888.9</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>10.6551</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5111,10 +5111,10 @@
         <v>206389</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>10.5852</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2184663.07</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>10.5852</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0</v>
@@ -5133,10 +5133,10 @@
         <v>188722</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2029885.85</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>10.7559</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -5153,10 +5153,10 @@
         <v>180536</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>10.4652</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1889353.51</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>10.4652</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>17.64</v>
@@ -5175,10 +5175,10 @@
         <v>166945</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>9.8489</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1644225.86</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>9.8489</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5195,10 +5195,10 @@
         <v>153771</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>9.889299999999999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1520694.5</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>9.889299999999999</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>73.01000000000001</v>
@@ -5217,10 +5217,10 @@
         <v>144244</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>10.1761</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1467837</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>10.1761</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2211</v>
@@ -5239,10 +5239,10 @@
         <v>130308</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>10.0999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1316104</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>10.0999</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>923</v>
@@ -5261,10 +5261,10 @@
         <v>126598</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>9.9855</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1264141</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>9.9855</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>940</v>
@@ -5283,10 +5283,10 @@
         <v>123403</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>8.9717</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1107135</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>8.9717</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6598</v>
@@ -5305,10 +5305,10 @@
         <v>121491</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10.1322</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1230973</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>10.1322</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5327,10 +5327,10 @@
         <v>112479</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>10.3346</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1162429</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>10.3346</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>393</v>
@@ -5349,10 +5349,10 @@
         <v>110377</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>10.3544</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1142892</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>10.3544</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>91</v>
@@ -5371,10 +5371,10 @@
         <v>105477</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>10.7535</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1134250</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>10.7535</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2114</v>
@@ -5393,10 +5393,10 @@
         <v>103119</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>9.9062</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1021515</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>9.9062</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>100000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>987000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9.869999999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>421</v>
@@ -5437,10 +5437,10 @@
         <v>95399</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>9.486499999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>905000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>9.486499999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5459,10 +5459,10 @@
         <v>93847</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>9.6015</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>901075</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>9.6015</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5481,10 +5481,10 @@
         <v>94148</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9.986700000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>940229</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>9.986700000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>94104</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>9.642899999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>907439</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>9.642899999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -5525,10 +5525,10 @@
         <v>92669</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9.4863</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>879083</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9.4863</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -5547,10 +5547,10 @@
         <v>92215</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.5063</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>876623</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9.5063</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         <v>81358</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>9.370100000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>762336</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>9.370100000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5591,10 +5591,10 @@
         <v>89931</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>9.315899999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>837787</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>9.315899999999999</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5613,10 +5613,10 @@
         <v>89705</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.807700000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>790097</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8.807700000000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5635,10 +5635,10 @@
         <v>89747</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.913200000000002</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>799929</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8.913200000000002</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5657,10 +5657,10 @@
         <v>82792</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8.567200000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>709296</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8.567200000000001</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>210</v>
@@ -5679,10 +5679,10 @@
         <v>87508</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.279500000000001</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>724523</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.279500000000001</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5701,10 +5701,10 @@
         <v>82926</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.4108</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>780403</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9.4108</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>71</v>
@@ -5723,10 +5723,10 @@
         <v>77365</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8.870899999999999</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>686301</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>8.870899999999999</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>73</v>
@@ -5745,10 +5745,10 @@
         <v>56831</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>8.325700000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>473156</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>8.325700000000001</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>40</v>
@@ -5767,10 +5767,10 @@
         <v>78084</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>8.7461</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>682928</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>8.7461</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>3</v>
@@ -5789,10 +5789,10 @@
         <v>61211</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8.508899999999999</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>520837</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>8.508899999999999</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5811,10 +5811,10 @@
         <v>66362</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9.461799999999998</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>627906</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9.461799999999998</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5833,10 +5833,10 @@
         <v>73015</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>7.758</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>566451</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>7.758</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5855,10 +5855,10 @@
         <v>56869</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7.7268</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>439418</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7.7268</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5877,10 +5877,10 @@
         <v>57480</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7.422</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>426618</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7.422</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5899,10 +5899,10 @@
         <v>55796</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8.7113</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>486056</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8.7113</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5921,10 +5921,10 @@
         <v>55640</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8.283200000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>460879</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8.283200000000001</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5943,10 +5943,10 @@
         <v>54498</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8.1061</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>441768</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8.1061</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5965,10 +5965,10 @@
         <v>48861</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7.4898</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>365957</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7.4898</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5987,10 +5987,10 @@
         <v>51450</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7.6806</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>395168</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>7.6806</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>45243</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7.3627</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>333112</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7.3627</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6031,10 +6031,10 @@
         <v>36942</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>7.5908</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>280421</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>7.5908</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6053,10 +6053,10 @@
         <v>37453</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>7.4619</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>279470</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>7.4619</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6075,10 +6075,10 @@
         <v>33555</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>260890</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>7.775</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>31324</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9.144500000000001</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>286443</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9.144500000000001</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6119,10 +6119,10 @@
         <v>26864</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>8.720600000000001</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>234270</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>8.720600000000001</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6141,10 +6141,10 @@
         <v>23797</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.9505</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>236791</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.9505</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6163,10 +6163,10 @@
         <v>19111</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.8274</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>226034</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.8274</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>17104</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.7948</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>201739</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.7948</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6207,10 +6207,10 @@
         <v>16031</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.9959</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>192307</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.9959</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         <v>15034</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>11.567</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>173899</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>11.567</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6250,10 +6250,10 @@
         <v>13660</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.4092</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>169510</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.4092</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6271,10 +6271,10 @@
         <v>12181</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>13.292</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>161910</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>13.292</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6292,10 +6292,10 @@
         <v>10055</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>131721</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>13.1</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6313,10 +6313,10 @@
         <v>9972</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>13.0411</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>130046</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>13.0411</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         <v>8898</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>12.6921</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>112934</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>12.6921</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6355,10 +6355,10 @@
         <v>8723</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12.3876</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>108057</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12.3876</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6773,10 +6773,10 @@
         <v>106714</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>10.1745</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1085765.75</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>10.1745</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2170.33</v>
@@ -6795,10 +6795,10 @@
         <v>110183</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9.898700000000002</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1090664</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9.898700000000002</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>798.63</v>
@@ -6817,10 +6817,10 @@
         <v>94111</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>10.4092</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>979617.72</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>10.4092</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>394.64</v>
@@ -6839,10 +6839,10 @@
         <v>79397</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>10.4431</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>829146.66</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>10.4431</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>811.05</v>
@@ -6861,10 +6861,10 @@
         <v>63534</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>8.420999999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>535021</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>8.420999999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>43.02</v>
@@ -6883,10 +6883,10 @@
         <v>53801</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>8.272600000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>445075</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>8.272600000000001</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6903,10 +6903,10 @@
         <v>41068</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>7.5038</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>308166</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>7.5038</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>132.7</v>
@@ -6925,10 +6925,10 @@
         <v>40057</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7.3493</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>294389.28</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7.3493</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>217.1</v>
@@ -6947,10 +6947,10 @@
         <v>36461</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>8.498100000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>309852.02</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>8.498100000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1129.79</v>
@@ -6969,10 +6969,10 @@
         <v>34513</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.366</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>288739.26</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8.366</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3127.6</v>
@@ -6991,10 +6991,10 @@
         <v>32089</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>9.193100000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>294997.27</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>9.193100000000001</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3904</v>
@@ -7013,10 +7013,10 @@
         <v>27705</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>9.218</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>255384</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>9.218</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>6126</v>
@@ -7035,10 +7035,10 @@
         <v>24513</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8.7745</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>215089</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>8.7745</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7190</v>
@@ -7057,10 +7057,10 @@
         <v>21592</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.514799999999999</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>205443</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9.514799999999999</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>9044</v>
@@ -7079,10 +7079,10 @@
         <v>19255</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>9.8171</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>189029</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>9.8171</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>12501</v>
@@ -7101,10 +7101,10 @@
         <v>18470</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.9604</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>183968</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.9604</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>7507</v>
@@ -7123,10 +7123,10 @@
         <v>18833</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>10.3009</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>193996</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>10.3009</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>11226</v>
@@ -7145,10 +7145,10 @@
         <v>17641</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>10.8673</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>191710</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>10.8673</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>17665</v>
@@ -7167,10 +7167,10 @@
         <v>16108</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>10.6533</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>171603</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>10.6533</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>16668</v>
@@ -7189,10 +7189,10 @@
         <v>15967</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>10.7086</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>170985</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>10.7086</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>16665</v>
@@ -7211,10 +7211,10 @@
         <v>15540</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>10.5005</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>163177</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>10.5005</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>11106</v>
@@ -7233,10 +7233,10 @@
         <v>14042</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>10.1624</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>142700</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>10.1624</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>10290</v>
@@ -7255,10 +7255,10 @@
         <v>13846</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9.8992</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>137065</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>9.8992</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6833</v>
@@ -7277,10 +7277,10 @@
         <v>13204</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>9.971500000000001</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>131664</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>9.971500000000001</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>9553.02</v>
@@ -7299,10 +7299,10 @@
         <v>12689</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>12.4915</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>158505</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>12.4915</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8196</v>
@@ -7321,10 +7321,10 @@
         <v>8000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>74000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9.25</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1172</v>
@@ -7343,10 +7343,10 @@
         <v>11000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>11.4545</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>11.4545</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>8793</v>
@@ -7365,10 +7365,10 @@
         <v>9500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>114000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>12</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>8008</v>
@@ -7387,10 +7387,10 @@
         <v>9792</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>10.2127</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>10.2127</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>6338</v>
@@ -7409,10 +7409,10 @@
         <v>8811</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>9.865200000000002</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>86924.34</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>9.865200000000002</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4219</v>
@@ -7431,10 +7431,10 @@
         <v>8000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>74000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9.25</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>3698</v>
@@ -7453,10 +7453,10 @@
         <v>7950</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>9.2849</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>73815</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>9.2849</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>4190</v>
@@ -7475,10 +7475,10 @@
         <v>7930</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.0923</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>72102</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9.0923</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1336</v>
@@ -7497,10 +7497,10 @@
         <v>7307</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7.8095</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>57064</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7.8095</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7519,10 +7519,10 @@
         <v>8000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>10.1344</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>81075</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>10.1344</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7541,10 +7541,10 @@
         <v>7500</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>10.1555</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>76166</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>10.1555</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7563,10 +7563,10 @@
         <v>4900</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.4798</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>51351</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.4798</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2</v>
@@ -7585,10 +7585,10 @@
         <v>4500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>10.8902</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>49006</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>10.8902</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7607,10 +7607,10 @@
         <v>2800</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>11.6071</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>32500</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>11.6071</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7629,10 +7629,10 @@
         <v>1773</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>10.6277</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>18843</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>10.6277</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7651,10 +7651,10 @@
         <v>1727</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.9971</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>25900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.9971</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7673,10 +7673,10 @@
         <v>1647</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>16470</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7695,10 +7695,10 @@
         <v>1730</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>10.6012</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>18340</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>10.6012</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>1570</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>15700</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7739,10 +7739,10 @@
         <v>1680</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9.3155</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15650</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9.3155</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7761,10 +7761,10 @@
         <v>1750</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8.857100000000001</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>15500</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8.857100000000001</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7783,10 +7783,10 @@
         <v>1800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8.566700000000001</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>15420</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8.566700000000001</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7805,10 +7805,10 @@
         <v>1800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.5389</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>15370</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8.5389</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7827,10 +7827,10 @@
         <v>1625</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.183399999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13298</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.183399999999999</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7849,10 +7849,10 @@
         <v>1600</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.3125</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>13300</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.3125</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7871,10 +7871,10 @@
         <v>1580</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.3544</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13200</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.3544</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7893,10 +7893,10 @@
         <v>1580</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>8.2911</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>13100</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>8.2911</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7915,10 +7915,10 @@
         <v>1560</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.333299999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>8.333299999999999</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7937,10 +7937,10 @@
         <v>1560</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.333299999999999</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.333299999999999</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7959,10 +7959,10 @@
         <v>1550</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.3226</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>12900</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.3226</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7981,10 +7981,10 @@
         <v>1550</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.258100000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>12800</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.258100000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8003,10 +8003,10 @@
         <v>1530</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.300700000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12700</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.300700000000001</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         <v>1530</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.235299999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12600</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.235299999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8045,10 +8045,10 @@
         <v>1500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.333299999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>12500</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.333299999999999</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>1480</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.378399999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12400</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.378399999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8087,10 +8087,10 @@
         <v>1480</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.310799999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12300</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.310799999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8108,10 +8108,10 @@
         <v>1450</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8.413799999999998</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>12200</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8.413799999999998</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8129,10 +8129,10 @@
         <v>1400</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8.571399999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8.571399999999999</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8547,10 +8547,10 @@
         <v>47886</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>21.2344</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1016834.74</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>21.2344</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>428.74</v>
@@ -8569,10 +8569,10 @@
         <v>39581</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>18.6252</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>737200.99</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>18.6252</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8589,10 +8589,10 @@
         <v>37468</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>16.9309</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>634368.16</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>16.9309</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>149.07</v>
@@ -8611,10 +8611,10 @@
         <v>36602</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>16.9415</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>620086.96</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>16.9415</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>66.12</v>
@@ -8633,10 +8633,10 @@
         <v>42571</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>15.6361</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>665652.11</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>15.6361</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>35.89</v>
@@ -8655,10 +8655,10 @@
         <v>41732</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>15.4462</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>644602.92</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>15.4462</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>20.6</v>
@@ -8677,10 +8677,10 @@
         <v>41711</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>15.2882</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>637688</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>15.2882</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>42.12</v>
@@ -8699,10 +8699,10 @@
         <v>40125</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>14.9869</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>601349.36</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>14.9869</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>9.69</v>
@@ -8721,10 +8721,10 @@
         <v>39337</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>13.3828</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>526438</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>13.3828</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>21.99</v>
@@ -8743,10 +8743,10 @@
         <v>38780</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>13.2532</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>513960.99</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>13.2532</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.31</v>
@@ -8765,10 +8765,10 @@
         <v>38767</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>9.996799999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>387546.03</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>9.996799999999999</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -8785,10 +8785,10 @@
         <v>33553</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>8.6434</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>290011</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>8.6434</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -8805,10 +8805,10 @@
         <v>31946</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>9.2369</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>295080.75</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>9.2369</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -8825,10 +8825,10 @@
         <v>31674</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.016500000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>285590.13</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9.016500000000001</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -8845,10 +8845,10 @@
         <v>21550</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8.554799999999998</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>184357</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>8.554799999999998</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -8865,10 +8865,10 @@
         <v>17495</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>10.7539</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>188139</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>10.7539</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -8885,10 +8885,10 @@
         <v>20900</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>8.7784</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>183468</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>8.7784</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -8905,10 +8905,10 @@
         <v>21452</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>10.0866</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>216378</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>10.0866</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -8925,10 +8925,10 @@
         <v>15253</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7.3891</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>112706</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>7.3891</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -8945,10 +8945,10 @@
         <v>20577</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>10.6986</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>220146.06</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>10.6986</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -8965,10 +8965,10 @@
         <v>19735</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>273606</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13.864</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -8985,10 +8985,10 @@
         <v>11383</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>12.9609</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>147534</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>12.9609</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -9005,10 +9005,10 @@
         <v>8704</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12.7594</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>111058</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12.7594</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -9025,10 +9025,10 @@
         <v>6101</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>13.3971</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>81736</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>13.3971</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -9045,10 +9045,10 @@
         <v>6978</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>10.1975</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>71158</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>10.1975</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -9065,10 +9065,10 @@
         <v>6196</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.6867</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>60019</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9.6867</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -9085,10 +9085,10 @@
         <v>3914</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.9131</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>30972</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7.9131</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -9105,10 +9105,10 @@
         <v>7052</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.7001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11989</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.7001</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -9125,10 +9125,10 @@
         <v>5907</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.131</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>48030</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8.131</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -9145,10 +9145,10 @@
         <v>2518</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.801</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>27197</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.801</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -9165,10 +9165,10 @@
         <v>1667</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>7.2478</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>12082</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>7.2478</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -9185,10 +9185,10 @@
         <v>1494</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7.6098</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>11369</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7.6098</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -9205,10 +9205,10 @@
         <v>1012</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>20.5563</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>20803</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>20.5563</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -9225,10 +9225,10 @@
         <v>1104</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6.6812</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7376</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6.6812</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -9245,10 +9245,10 @@
         <v>16000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>8.571899999999999</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>137150</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>8.571899999999999</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -9265,10 +9265,10 @@
         <v>16000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7.8056</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>124890</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7.8056</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -9285,10 +9285,10 @@
         <v>16000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8.0931</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>129490</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>8.0931</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9305,10 +9305,10 @@
         <v>16000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8.2925</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>132680</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8.2925</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9325,10 +9325,10 @@
         <v>16000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8.064399999999999</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>129031</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8.064399999999999</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9342,10 +9342,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="n">
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="n">
         <v>130996</v>
       </c>
-      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
         <v>2267</v>
@@ -9358,10 +9358,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="n">
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="n">
         <v>138000</v>
       </c>
-      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
         <v>1342</v>
@@ -9374,10 +9374,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="n">
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="n">
         <v>136000</v>
       </c>
-      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
         <v>943</v>
@@ -9390,10 +9390,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="n">
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="n">
         <v>134000</v>
       </c>
-      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
         <v>1137</v>
@@ -9406,10 +9406,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="n">
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="n">
         <v>124800</v>
       </c>
-      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
         <v>2750</v>
@@ -9422,10 +9422,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="n">
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
         <v>138700</v>
       </c>
-      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
         <v>1301</v>
@@ -9438,10 +9438,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="n">
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
         <v>134782</v>
       </c>
-      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
         <v>3535</v>
@@ -9454,10 +9454,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="n">
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
         <v>133146</v>
       </c>
-      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
         <v>2889</v>
@@ -9470,10 +9470,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="n">
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
         <v>131512</v>
       </c>
-      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
         <v>2607</v>
@@ -9486,10 +9486,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="n">
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
         <v>129877</v>
       </c>
-      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
         <v>2086</v>
@@ -9502,10 +9502,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="n">
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
         <v>128242</v>
       </c>
-      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
         <v>2421</v>
@@ -9518,10 +9518,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="n">
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
         <v>126607</v>
       </c>
-      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
         <v>2341</v>
@@ -9534,10 +9534,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="n">
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
         <v>124972</v>
       </c>
-      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
         <v>2040</v>
@@ -9550,10 +9550,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="n">
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
         <v>123337</v>
       </c>
-      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
         <v>2046</v>
@@ -9566,10 +9566,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="n">
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
         <v>121702</v>
       </c>
-      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
         <v>1568</v>
@@ -9582,10 +9582,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="n">
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
         <v>120067</v>
       </c>
-      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
         <v>999</v>
@@ -9598,10 +9598,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="n">
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
         <v>118433</v>
       </c>
-      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
         <v>460</v>
@@ -9614,10 +9614,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="n">
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
         <v>116798</v>
       </c>
-      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
         <v>634</v>
@@ -9629,10 +9629,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="n">
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
         <v>115162</v>
       </c>
-      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
         <v>856</v>
@@ -9644,10 +9644,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="n">
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
         <v>116520</v>
       </c>
-      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
         <v>343</v>
@@ -9659,10 +9659,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="n">
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
         <v>115674</v>
       </c>
-      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
         <v>230</v>
@@ -9674,10 +9674,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="n">
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
         <v>109511</v>
       </c>
-      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
         <v>215</v>
@@ -9689,10 +9689,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="n">
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
         <v>107850</v>
       </c>
-      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
         <v>264</v>
@@ -9704,10 +9704,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="n">
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
         <v>106215</v>
       </c>
-      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
         <v>353</v>
@@ -10040,7 +10040,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10119,10 +10119,10 @@
         <v>63078</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>15.5769</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>982558.9399999999</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>15.5769</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -10139,10 +10139,10 @@
         <v>66152</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13.0199</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>861293.97</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>13.0199</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10159,10 +10159,10 @@
         <v>55382</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>14.0236</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>776650.96</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>14.0236</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.5</v>
@@ -10181,10 +10181,10 @@
         <v>51241</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>13.1191</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>672232.24</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>13.1191</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>13.56</v>
@@ -10203,10 +10203,10 @@
         <v>47905</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>11.9401</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>571991.85</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>11.9401</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>22.08</v>
@@ -10225,10 +10225,10 @@
         <v>41228</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>12.2449</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>504839.74</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>12.2449</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>47.15</v>
@@ -10247,10 +10247,10 @@
         <v>39629</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>11.7792</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>466796</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>11.7792</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>41.92</v>
@@ -10269,10 +10269,10 @@
         <v>37871</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>12.0248</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>455394.17</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>12.0248</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10289,10 +10289,10 @@
         <v>33590</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10.9291</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>367110</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>10.9291</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -10309,10 +10309,10 @@
         <v>30320</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>11.521</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>349317</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>11.521</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10329,10 +10329,10 @@
         <v>25753</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>11.1982</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>288387</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>11.1982</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>21615</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>12.423</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>268525.27</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>12.423</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10373,10 +10373,10 @@
         <v>19339</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>11.0482</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>213662</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>11.0482</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10395,10 +10395,10 @@
         <v>17750</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>184370</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>10.387</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>16292</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>9.662100000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>157415</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>9.662100000000001</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>14370</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.485200000000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>136303</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.485200000000001</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10461,10 +10461,10 @@
         <v>13603</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>8.948</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>121720</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>8.948</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>404</v>
@@ -10483,10 +10483,10 @@
         <v>12528</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9.0405</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>113259</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9.0405</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>22</v>
@@ -10505,10 +10505,10 @@
         <v>11762</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>8.7925</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>103417</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>8.7925</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10527,10 +10527,10 @@
         <v>11699</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9.270899999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>108460</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9.270899999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10549,10 +10549,10 @@
         <v>11163</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8.9559</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>99975</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8.9559</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10571,10 +10571,10 @@
         <v>10308</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>9.141999999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>94236</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>9.141999999999999</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -10593,10 +10593,10 @@
         <v>10263</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9.106399999999999</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>93459</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>9.106399999999999</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10615,10 +10615,10 @@
         <v>8748</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>9.5646</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>83671</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>9.5646</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10637,10 +10637,10 @@
         <v>8169</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9.5528</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>78037</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9.5528</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>7814</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>8.602799999999998</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>67222</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>8.602799999999998</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>34</v>
@@ -10681,10 +10681,10 @@
         <v>7246</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>9.949399999999999</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>72093</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>9.949399999999999</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -10701,10 +10701,10 @@
         <v>7168</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.9855</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>64408</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8.9855</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -10721,10 +10721,10 @@
         <v>6115</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.690899999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>53145</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8.690899999999999</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -10741,10 +10741,10 @@
         <v>6368</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.3405</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>53112</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8.3405</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10761,10 +10761,10 @@
         <v>8159</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>11.3565</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>92658</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>11.3565</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -10781,10 +10781,10 @@
         <v>7828</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>12.2868</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>96181</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>12.2868</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -10801,10 +10801,10 @@
         <v>7710</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11.1166</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>85709</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11.1166</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -10821,10 +10821,10 @@
         <v>7524</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>11.6863</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>87928</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>11.6863</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -10841,10 +10841,10 @@
         <v>7540</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>11.5806</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>87318</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>11.5806</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -10861,10 +10861,10 @@
         <v>7650</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>11.268</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>86200</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>11.268</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -10881,10 +10881,10 @@
         <v>7674</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.9295</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>83873</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.9295</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -10901,10 +10901,10 @@
         <v>7265</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>11.0321</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>80148</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>11.0321</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -10921,10 +10921,10 @@
         <v>6823</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>10.363</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>70707</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>10.363</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -10941,10 +10941,10 @@
         <v>7874</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>10.5425</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>83012</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>10.5425</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -10961,10 +10961,10 @@
         <v>7640</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>10.1513</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>77556</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>10.1513</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -10981,10 +10981,10 @@
         <v>7958</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10.8202</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>86107</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10.8202</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -11001,10 +11001,10 @@
         <v>7656</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>10.0581</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>77005</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>10.0581</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -11021,10 +11021,10 @@
         <v>7718</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9.525499999999999</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>73518</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9.525499999999999</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11041,10 +11041,10 @@
         <v>9575</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8.6273</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>82606</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8.6273</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11061,10 +11061,10 @@
         <v>9593</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8.702200000000001</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>83480</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8.702200000000001</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11081,10 +11081,10 @@
         <v>9580</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8.759499999999999</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>83916</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8.759499999999999</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11101,10 +11101,10 @@
         <v>9794</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.468200000000001</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>82938</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8.468200000000001</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11121,10 +11121,10 @@
         <v>9635</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.903799999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>85788</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.903799999999999</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11141,10 +11141,10 @@
         <v>10825</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9.611700000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>104047</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9.611700000000001</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11161,10 +11161,10 @@
         <v>10827</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9.629</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>104253</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9.629</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11181,10 +11181,10 @@
         <v>10745</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.7631</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>104904</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.7631</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11201,10 +11201,10 @@
         <v>10888</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.8523</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>96384</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>8.8523</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11221,10 +11221,10 @@
         <v>10190</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.576600000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>87396</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.576600000000001</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11241,10 +11241,10 @@
         <v>8980</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>7.3929</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>66388</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>7.3929</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11261,10 +11261,10 @@
         <v>6454</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7.6004</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>49053</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7.6004</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11281,10 +11281,10 @@
         <v>5334</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.493600000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>45305</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.493600000000001</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11300,10 +11300,10 @@
         <v>5420</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.583399999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>46522</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.583399999999999</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11319,10 +11319,10 @@
         <v>4455</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.6925</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>29815</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6.6925</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11338,10 +11338,10 @@
         <v>4630</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5.1069</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>23645</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5.1069</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11357,10 +11357,10 @@
         <v>4400</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5.1045</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>22460</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5.1045</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11376,10 +11376,10 @@
         <v>4100</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5.1049</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>20930</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5.1049</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11395,10 +11395,10 @@
         <v>3900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5.1051</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>19910</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5.1051</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11732,7 +11732,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11811,10 +11811,10 @@
         <v>65177</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>13.4103</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>874046.49</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>13.4103</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>64.65000000000001</v>
@@ -11833,10 +11833,10 @@
         <v>64555</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13.4149</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>866000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>13.4149</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>52.01</v>
@@ -11855,10 +11855,10 @@
         <v>49853</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>13.4195</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>669000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>13.4195</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>93.56999999999999</v>
@@ -11877,10 +11877,10 @@
         <v>45074</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>13.5122</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>609049</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>13.5122</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>87.92</v>
@@ -11899,10 +11899,10 @@
         <v>33959</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>13.5934</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>461613</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>13.5934</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>126.87</v>
@@ -11921,10 +11921,10 @@
         <v>30339</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>13.5166</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>410084</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>13.5166</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>122.11</v>
@@ -11943,10 +11943,10 @@
         <v>27008</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>13.4461</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>363157</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>13.4461</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>66.73999999999999</v>
@@ -11965,10 +11965,10 @@
         <v>22784</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>13.3836</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>304938</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>13.3836</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>9.029999999999999</v>
@@ -11987,10 +11987,10 @@
         <v>28429</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>13.4557</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>382530</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>13.4557</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7.4</v>
@@ -12009,10 +12009,10 @@
         <v>22372</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>13.7369</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>307326</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>13.7369</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1.66</v>
@@ -12031,10 +12031,10 @@
         <v>21027</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>13.7869</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>289901</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>13.7869</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12053,10 +12053,10 @@
         <v>20989</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>14.0169</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>294200</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>14.0169</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>52</v>
@@ -12075,10 +12075,10 @@
         <v>21653</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>12.7443</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>275953</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>12.7443</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>16</v>
@@ -12097,10 +12097,10 @@
         <v>20507</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10.9367</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>224278</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>10.9367</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>15</v>
@@ -12119,10 +12119,10 @@
         <v>19979</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>12.8956</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>257642</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>12.8956</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10</v>
@@ -12141,10 +12141,10 @@
         <v>19802</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>12.3328</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>244215</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>12.3328</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>35</v>
@@ -12163,10 +12163,10 @@
         <v>17224</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>11.7066</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>201635</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>11.7066</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>18</v>
@@ -12185,10 +12185,10 @@
         <v>15629</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>15.3217</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>239463</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>15.3217</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>19</v>
@@ -12207,10 +12207,10 @@
         <v>17133</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>13.283</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>227577</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>13.283</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>19</v>
@@ -12229,10 +12229,10 @@
         <v>15536</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>14.2748</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>221774</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>14.2748</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>30</v>
@@ -12251,10 +12251,10 @@
         <v>17338</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>14.7629</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>255959</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>14.7629</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>43</v>
@@ -12273,10 +12273,10 @@
         <v>15769</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>15.1044</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>238182</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>15.1044</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>270</v>
@@ -12295,10 +12295,10 @@
         <v>11237</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12.6104</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>141703</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12.6104</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>29</v>
@@ -12317,10 +12317,10 @@
         <v>13277</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>10.981</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>145795</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>10.981</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>20.35</v>
@@ -12339,10 +12339,10 @@
         <v>11421</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>11.0414</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>126104</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>11.0414</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8</v>
@@ -12361,10 +12361,10 @@
         <v>12284</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>10.6602</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>130950</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>10.6602</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3</v>
@@ -12383,10 +12383,10 @@
         <v>11200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>11.6029</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>129952</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>11.6029</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>9</v>
@@ -12405,10 +12405,10 @@
         <v>19041</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>143151</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7.518</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>15</v>
@@ -12427,10 +12427,10 @@
         <v>19377</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.3964</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>162697</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8.3964</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>18</v>
@@ -12449,10 +12449,10 @@
         <v>14856</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6.868399999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>102037</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6.868399999999999</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>16</v>
@@ -12471,10 +12471,10 @@
         <v>19185</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4.833</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>92721</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4.833</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5</v>
@@ -12493,10 +12493,10 @@
         <v>27740</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.3622</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>93267</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.3622</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>3</v>
@@ -12515,10 +12515,10 @@
         <v>26879</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3.4012</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>91420</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3.4012</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>21</v>
@@ -12537,10 +12537,10 @@
         <v>23830</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3.5498</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>84592</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3.5498</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12559,10 +12559,10 @@
         <v>21709</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.8238</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>61302</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.8238</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12581,10 +12581,10 @@
         <v>20362</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3.0704</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>62520</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3.0704</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12603,10 +12603,10 @@
         <v>14700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3.8503</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>56600</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3.8503</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12625,10 +12625,10 @@
         <v>16500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.3091</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>71100</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4.3091</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12647,10 +12647,10 @@
         <v>20030</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3.1354</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>62802</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3.1354</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12669,10 +12669,10 @@
         <v>16897</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.4383</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>58097</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.4383</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12691,10 +12691,10 @@
         <v>15495</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.9522</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>45745</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.9522</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12713,10 +12713,10 @@
         <v>17000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.0274</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>51465</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3.0274</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12735,10 +12735,10 @@
         <v>15259</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4.731100000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>72192</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4.731100000000001</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12757,10 +12757,10 @@
         <v>10600</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.3748</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>46373</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.3748</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12779,10 +12779,10 @@
         <v>9098</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.2887</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>39019</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.2887</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12801,10 +12801,10 @@
         <v>13958</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>3.3672</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>47000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>3.3672</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12823,10 +12823,10 @@
         <v>15315</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3.761</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>57600</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3.761</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12845,10 +12845,10 @@
         <v>11000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>44000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1</v>
@@ -12867,10 +12867,10 @@
         <v>7500</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>55800</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>7.44</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -12889,10 +12889,10 @@
         <v>7800</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>7.102600000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>55400</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>7.102600000000001</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -12911,10 +12911,10 @@
         <v>7000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>5.714300000000001</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>40000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>5.714300000000001</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -12933,10 +12933,10 @@
         <v>6000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>36000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>6</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -12955,10 +12955,10 @@
         <v>4000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>28000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>7</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -12977,10 +12977,10 @@
         <v>6000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>33000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5.5</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -12999,10 +12999,10 @@
         <v>6500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6.1538</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>40000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6.1538</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13021,10 +13021,10 @@
         <v>7000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7.1429</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7.1429</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13043,10 +13043,10 @@
         <v>7000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7.1429</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7.1429</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13064,10 +13064,10 @@
         <v>7000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7.1429</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>7.1429</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13085,10 +13085,10 @@
         <v>6300</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5.5556</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>35000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5.5556</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13106,10 +13106,10 @@
         <v>6300</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5.5556</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>35000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5.5556</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13127,10 +13127,10 @@
         <v>5500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5.4545</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>30000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5.4545</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13148,10 +13148,10 @@
         <v>5500</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5.4545</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>30000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5.4545</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13169,10 +13169,10 @@
         <v>5500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5.4545</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>30000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5.4545</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Aguacates.xlsx
+++ b/Resultados/Mercado mundial - Aguacates.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colombia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="República Dominicana" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perú" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mexico" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Colombia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dominican Republic" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Peru" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Indonesia" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +842,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'República Dominicana'!$B$12:$B$74</f>
+              <f>'Dominican Republic'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'República Dominicana'!$C$12:$C$74</f>
+              <f>'Dominican Republic'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Perú'!$B$12:$B$74</f>
+              <f>'Peru'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Perú'!$C$12:$C$74</f>
+              <f>'Peru'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,10 +1088,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>954689</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>10466560.04</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>10.9633</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>10466560.04</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3473789.44</v>
@@ -2160,10 +2160,10 @@
         <v>916537</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9534798.17</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>10.4031</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9534798.17</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3101131.93</v>
@@ -2182,10 +2182,10 @@
         <v>851337</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>8808196.949999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>10.3463</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>8808196.949999999</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3216546.39</v>
@@ -2204,10 +2204,10 @@
         <v>808348</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>8231790.32</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>10.1835</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>8231790.32</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2906207.29</v>
@@ -2226,10 +2226,10 @@
         <v>752103</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7272277.55</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>9.6693</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7272277.55</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2656270.79</v>
@@ -2248,10 +2248,10 @@
         <v>729957</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6883084.01</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>9.429399999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6883084.01</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2552610.1</v>
@@ -2270,10 +2270,10 @@
         <v>674598</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6378617.23</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9.455399999999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6378617.23</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2152377.81</v>
@@ -2292,10 +2292,10 @@
         <v>666379</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6029954.01</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>9.0488</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6029954.01</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1996493.22</v>
@@ -2314,10 +2314,10 @@
         <v>608822</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>5506251.37</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>9.0441</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>5506251.37</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1794898.59</v>
@@ -2336,10 +2336,10 @@
         <v>562060</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>5091783.82</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>9.059100000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>5091783.82</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1551092.62</v>
@@ -2358,10 +2358,10 @@
         <v>521090</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>4566843.53</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>8.763999999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>4566843.53</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1282727</v>
@@ -2380,10 +2380,10 @@
         <v>483539</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4338207.41</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>8.9718</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4338207.41</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1127677</v>
@@ -2402,10 +2402,10 @@
         <v>467477</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4092747.23</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8.755000000000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4092747.23</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>950008</v>
@@ -2424,10 +2424,10 @@
         <v>452272</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3801778.4</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>8.406000000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3801778.4</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>902580</v>
@@ -2446,10 +2446,10 @@
         <v>427066</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3832478.31</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8.974</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3832478.31</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>901642</v>
@@ -2468,10 +2468,10 @@
         <v>410738</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3367358.28</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>8.1983</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3367358.28</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>752167</v>
@@ -2490,10 +2490,10 @@
         <v>401301</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3516967.56</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>8.7639</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3516967.56</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>780372</v>
@@ -2512,10 +2512,10 @@
         <v>384781</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3572593.26</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9.284799999999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3572593.26</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>614180</v>
@@ -2534,10 +2534,10 @@
         <v>372913</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>3352809.31</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>8.9909</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>3352809.31</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>665593</v>
@@ -2556,10 +2556,10 @@
         <v>366842</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3164334.91</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8.6259</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>3164334.91</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>492896</v>
@@ -2578,10 +2578,10 @@
         <v>354967</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>3121498.33</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8.793799999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>3121498.33</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>432298</v>
@@ -2600,10 +2600,10 @@
         <v>338756</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2943305.67</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8.688600000000001</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2943305.67</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>406555</v>
@@ -2622,10 +2622,10 @@
         <v>322465</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2762554.38</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8.567</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2762554.38</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>323649</v>
@@ -2644,10 +2644,10 @@
         <v>329358</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2705626.78</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8.214799999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2705626.78</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>346364.12</v>
@@ -2666,10 +2666,10 @@
         <v>307633</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2470079.92</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8.029300000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2470079.92</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>269777.44</v>
@@ -2688,10 +2688,10 @@
         <v>294716</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2372649.61</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>8.050600000000001</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2372649.61</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>306643.03</v>
@@ -2710,10 +2710,10 @@
         <v>275885</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2201120.03</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.9784</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2201120.03</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>250293.01</v>
@@ -2732,10 +2732,10 @@
         <v>296486</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2236581.5</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7.543600000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2236581.5</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>257096</v>
@@ -2754,10 +2754,10 @@
         <v>294664</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2138499.3</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7.2574</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2138499.3</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>211518</v>
@@ -2776,10 +2776,10 @@
         <v>296854</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2089121.13</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>7.0375</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2089121.13</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>187649</v>
@@ -2798,10 +2798,10 @@
         <v>288274</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1977851.12</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>6.861</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1977851.12</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>150413</v>
@@ -2820,10 +2820,10 @@
         <v>303494</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2144738.44</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7.0668</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2144738.44</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>188601</v>
@@ -2842,10 +2842,10 @@
         <v>297402</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2057215.38</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>6.9173</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2057215.38</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>172361</v>
@@ -2864,10 +2864,10 @@
         <v>285789</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1851282.29</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6.4778</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1851282.29</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>148551</v>
@@ -2886,10 +2886,10 @@
         <v>269795</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1676413</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6.2137</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1676413</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>124961</v>
@@ -2908,10 +2908,10 @@
         <v>286367</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1907246</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>6.660100000000001</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1907246</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>112784</v>
@@ -2930,10 +2930,10 @@
         <v>259499</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1825021</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>7.0329</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1825021</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>133921</v>
@@ -2952,10 +2952,10 @@
         <v>265006</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1961073</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>7.4001</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1961073</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>119001</v>
@@ -2974,10 +2974,10 @@
         <v>271093</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1752860</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6.4659</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1752860</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>100511</v>
@@ -2996,10 +2996,10 @@
         <v>217819</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1661982</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7.630100000000001</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1661982</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>87757</v>
@@ -3018,10 +3018,10 @@
         <v>214326</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1676042</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7.8201</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1676042</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>80684</v>
@@ -3040,10 +3040,10 @@
         <v>208953</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1664338</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7.965100000000001</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1664338</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>66404</v>
@@ -3062,10 +3062,10 @@
         <v>201459</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1544661</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7.6674</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1544661</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>51858</v>
@@ -3084,10 +3084,10 @@
         <v>188389</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1577865</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8.3756</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1577865</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>45196</v>
@@ -3106,10 +3106,10 @@
         <v>177163</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1348699</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7.6128</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1348699</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>47526</v>
@@ -3128,10 +3128,10 @@
         <v>181046</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1409038</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7.7828</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1409038</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>39959</v>
@@ -3150,10 +3150,10 @@
         <v>172553</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1347809</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7.811</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1347809</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>32621</v>
@@ -3172,10 +3172,10 @@
         <v>153171</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1280299</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.358600000000001</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1280299</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>23203</v>
@@ -3194,10 +3194,10 @@
         <v>148422</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1243261</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.3765</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1243261</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>22247</v>
@@ -3216,10 +3216,10 @@
         <v>141484</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1180212</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.341700000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1180212</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>17972</v>
@@ -3238,10 +3238,10 @@
         <v>133144</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1168951</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.7796</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1168951</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>13940</v>
@@ -3260,10 +3260,10 @@
         <v>124534</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1124012</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.025700000000001</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1124012</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>12527</v>
@@ -3282,10 +3282,10 @@
         <v>116189</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1086786</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.3536</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1086786</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>8405</v>
@@ -3304,10 +3304,10 @@
         <v>113730</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1029650</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9.0535</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1029650</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>8146</v>
@@ -3326,10 +3326,10 @@
         <v>107324</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1005429</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.3682</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1005429</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>6784</v>
@@ -3348,10 +3348,10 @@
         <v>102385</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>960427</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>9.3805</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>960427</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>6680</v>
@@ -3370,10 +3370,10 @@
         <v>97540</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>945037</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>9.688700000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>945037</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>5728</v>
@@ -3391,10 +3391,10 @@
         <v>93189</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>884536</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>9.4918</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>884536</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>13345</v>
@@ -3412,10 +3412,10 @@
         <v>89261</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>857193</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9.603200000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>857193</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3014</v>
@@ -3433,10 +3433,10 @@
         <v>85792</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>788522</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.1911</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>788522</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>4128</v>
@@ -3454,10 +3454,10 @@
         <v>84289</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>787311</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.3406</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>787311</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3464</v>
@@ -3475,10 +3475,10 @@
         <v>81377</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>747298</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9.183200000000001</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>747298</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1983</v>
@@ -3496,10 +3496,10 @@
         <v>78690</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>716353</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9.1035</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>716353</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2088</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>República Dominicana</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Haití</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Sudáfrica</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>República Dominicana</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>253309</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2973344.42</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>11.738</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2973344.42</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5031,10 @@
         <v>236132</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2540715.37</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>10.7597</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2540715.37</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5051,10 @@
         <v>226534</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2442944.64</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>10.784</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2442944.64</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5071,10 @@
         <v>224422</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2393848.57</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>10.6667</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2393848.57</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5091,10 +5091,10 @@
         <v>215942</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2300888.9</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>10.6551</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2300888.9</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5111,10 +5111,10 @@
         <v>206389</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2184663.07</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>10.5852</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2184663.07</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0</v>
@@ -5133,10 +5133,10 @@
         <v>188722</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2029885.85</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>10.7559</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2029885.85</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -5153,10 +5153,10 @@
         <v>180536</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1889353.51</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>10.4652</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1889353.51</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>17.64</v>
@@ -5175,10 +5175,10 @@
         <v>166945</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1644225.86</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>9.8489</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1644225.86</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5195,10 +5195,10 @@
         <v>153771</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1520694.5</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>9.889299999999999</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1520694.5</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>73.01000000000001</v>
@@ -5217,10 +5217,10 @@
         <v>144244</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1467837</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>10.1761</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1467837</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2211</v>
@@ -5239,10 +5239,10 @@
         <v>130308</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1316104</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>10.0999</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1316104</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>923</v>
@@ -5261,10 +5261,10 @@
         <v>126598</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1264141</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>9.9855</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1264141</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>940</v>
@@ -5283,10 +5283,10 @@
         <v>123403</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1107135</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>8.9717</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1107135</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6598</v>
@@ -5305,10 +5305,10 @@
         <v>121491</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1230973</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10.1322</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1230973</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5327,10 +5327,10 @@
         <v>112479</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1162429</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>10.3346</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1162429</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>393</v>
@@ -5349,10 +5349,10 @@
         <v>110377</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1142892</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>10.3544</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1142892</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>91</v>
@@ -5371,10 +5371,10 @@
         <v>105477</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1134250</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>10.7535</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1134250</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2114</v>
@@ -5393,10 +5393,10 @@
         <v>103119</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1021515</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>9.9062</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1021515</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>100000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>987000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9.869999999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>987000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>421</v>
@@ -5437,10 +5437,10 @@
         <v>95399</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>905000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>9.486499999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>905000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5459,10 +5459,10 @@
         <v>93847</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>901075</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>9.6015</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>901075</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5481,10 +5481,10 @@
         <v>94148</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>940229</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9.986700000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>940229</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>94104</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>907439</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>9.642899999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>907439</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -5525,10 +5525,10 @@
         <v>92669</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>879083</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9.4863</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>879083</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -5547,10 +5547,10 @@
         <v>92215</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>876623</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.5063</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>876623</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         <v>81358</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>762336</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>9.370100000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>762336</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5591,10 +5591,10 @@
         <v>89931</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>837787</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>9.315899999999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>837787</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5613,10 +5613,10 @@
         <v>89705</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>790097</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.807700000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>790097</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5635,10 +5635,10 @@
         <v>89747</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>799929</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.913200000000002</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>799929</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5657,10 +5657,10 @@
         <v>82792</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>709296</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8.567200000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>709296</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>210</v>
@@ -5679,10 +5679,10 @@
         <v>87508</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>724523</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.279500000000001</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>724523</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5701,10 +5701,10 @@
         <v>82926</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>780403</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.4108</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>780403</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>71</v>
@@ -5723,10 +5723,10 @@
         <v>77365</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>686301</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8.870899999999999</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>686301</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>73</v>
@@ -5745,10 +5745,10 @@
         <v>56831</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>473156</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>8.325700000000001</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>473156</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>40</v>
@@ -5767,10 +5767,10 @@
         <v>78084</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>682928</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>8.7461</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>682928</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>3</v>
@@ -5789,10 +5789,10 @@
         <v>61211</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>520837</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8.508899999999999</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>520837</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5811,10 +5811,10 @@
         <v>66362</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>627906</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9.461799999999998</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>627906</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5833,10 +5833,10 @@
         <v>73015</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>566451</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>7.758</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>566451</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5855,10 +5855,10 @@
         <v>56869</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>439418</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7.7268</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>439418</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5877,10 +5877,10 @@
         <v>57480</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>426618</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7.422</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>426618</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5899,10 +5899,10 @@
         <v>55796</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>486056</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8.7113</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>486056</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5921,10 +5921,10 @@
         <v>55640</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>460879</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8.283200000000001</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>460879</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5943,10 +5943,10 @@
         <v>54498</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>441768</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8.1061</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>441768</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5965,10 +5965,10 @@
         <v>48861</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>365957</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7.4898</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>365957</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5987,10 +5987,10 @@
         <v>51450</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>395168</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7.6806</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>395168</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>45243</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>333112</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7.3627</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>333112</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6031,10 +6031,10 @@
         <v>36942</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>280421</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>7.5908</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>280421</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6053,10 +6053,10 @@
         <v>37453</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>279470</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>7.4619</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>279470</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6075,10 +6075,10 @@
         <v>33555</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>260890</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>7.775</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>260890</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>31324</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>286443</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9.144500000000001</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>286443</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6119,10 +6119,10 @@
         <v>26864</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>234270</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>8.720600000000001</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>234270</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6141,10 +6141,10 @@
         <v>23797</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>236791</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.9505</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>236791</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6163,10 +6163,10 @@
         <v>19111</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>226034</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.8274</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>226034</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>17104</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>201739</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.7948</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>201739</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6207,10 +6207,10 @@
         <v>16031</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>192307</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.9959</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>192307</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         <v>15034</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>173899</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>11.567</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>173899</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6250,10 +6250,10 @@
         <v>13660</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>169510</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.4092</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>169510</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6271,10 +6271,10 @@
         <v>12181</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>161910</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>13.292</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>161910</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6292,10 +6292,10 @@
         <v>10055</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>131721</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>13.1</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>131721</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6313,10 +6313,10 @@
         <v>9972</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>130046</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>13.0411</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>130046</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         <v>8898</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>112934</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>12.6921</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>112934</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6355,10 +6355,10 @@
         <v>8723</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>108057</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12.3876</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>108057</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6773,10 +6773,10 @@
         <v>106714</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1085765.75</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>10.1745</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1085765.75</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2170.33</v>
@@ -6795,10 +6795,10 @@
         <v>110183</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1090664</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9.898700000000002</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1090664</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>798.63</v>
@@ -6817,10 +6817,10 @@
         <v>94111</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>979617.72</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>10.4092</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>979617.72</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>394.64</v>
@@ -6839,10 +6839,10 @@
         <v>79397</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>829146.66</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>10.4431</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>829146.66</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>811.05</v>
@@ -6861,10 +6861,10 @@
         <v>63534</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>535021</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>8.420999999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>535021</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>43.02</v>
@@ -6883,10 +6883,10 @@
         <v>53801</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>445075</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>8.272600000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>445075</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6903,10 +6903,10 @@
         <v>41068</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>308166</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>7.5038</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>308166</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>132.7</v>
@@ -6925,10 +6925,10 @@
         <v>40057</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>294389.28</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7.3493</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>294389.28</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>217.1</v>
@@ -6947,10 +6947,10 @@
         <v>36461</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>309852.02</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>8.498100000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>309852.02</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1129.79</v>
@@ -6969,10 +6969,10 @@
         <v>34513</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>288739.26</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.366</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>288739.26</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3127.6</v>
@@ -6991,10 +6991,10 @@
         <v>32089</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>294997.27</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>9.193100000000001</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>294997.27</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3904</v>
@@ -7013,10 +7013,10 @@
         <v>27705</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>255384</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>9.218</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>255384</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>6126</v>
@@ -7035,10 +7035,10 @@
         <v>24513</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>215089</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8.7745</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>215089</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7190</v>
@@ -7057,10 +7057,10 @@
         <v>21592</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>205443</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.514799999999999</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>205443</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>9044</v>
@@ -7079,10 +7079,10 @@
         <v>19255</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>189029</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>9.8171</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>189029</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>12501</v>
@@ -7101,10 +7101,10 @@
         <v>18470</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>183968</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.9604</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>183968</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>7507</v>
@@ -7123,10 +7123,10 @@
         <v>18833</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>193996</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>10.3009</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>193996</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>11226</v>
@@ -7145,10 +7145,10 @@
         <v>17641</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>191710</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>10.8673</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>191710</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>17665</v>
@@ -7167,10 +7167,10 @@
         <v>16108</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>171603</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>10.6533</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>171603</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>16668</v>
@@ -7189,10 +7189,10 @@
         <v>15967</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>170985</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>10.7086</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>170985</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>16665</v>
@@ -7211,10 +7211,10 @@
         <v>15540</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>163177</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>10.5005</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>163177</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>11106</v>
@@ -7233,10 +7233,10 @@
         <v>14042</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>142700</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>10.1624</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>142700</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>10290</v>
@@ -7255,10 +7255,10 @@
         <v>13846</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>137065</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9.8992</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>137065</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6833</v>
@@ -7277,10 +7277,10 @@
         <v>13204</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>131664</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>9.971500000000001</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>131664</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>9553.02</v>
@@ -7299,10 +7299,10 @@
         <v>12689</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>158505</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>12.4915</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>158505</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8196</v>
@@ -7321,10 +7321,10 @@
         <v>8000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.25</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>74000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1172</v>
@@ -7343,10 +7343,10 @@
         <v>11000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>11.4545</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>8793</v>
@@ -7365,10 +7365,10 @@
         <v>9500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>12</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>114000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>8008</v>
@@ -7387,10 +7387,10 @@
         <v>9792</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>10.2127</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>6338</v>
@@ -7409,10 +7409,10 @@
         <v>8811</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>86924.34</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>9.865200000000002</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>86924.34</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4219</v>
@@ -7431,10 +7431,10 @@
         <v>8000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9.25</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>74000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>3698</v>
@@ -7453,10 +7453,10 @@
         <v>7950</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>73815</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>9.2849</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>73815</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>4190</v>
@@ -7475,10 +7475,10 @@
         <v>7930</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>72102</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.0923</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>72102</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1336</v>
@@ -7497,10 +7497,10 @@
         <v>7307</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>57064</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7.8095</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>57064</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7519,10 +7519,10 @@
         <v>8000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>81075</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>10.1344</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>81075</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7541,10 +7541,10 @@
         <v>7500</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>76166</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>10.1555</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>76166</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7563,10 +7563,10 @@
         <v>4900</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>51351</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.4798</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>51351</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2</v>
@@ -7585,10 +7585,10 @@
         <v>4500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>49006</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>10.8902</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>49006</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7607,10 +7607,10 @@
         <v>2800</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>32500</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>11.6071</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>32500</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7629,10 +7629,10 @@
         <v>1773</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>18843</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>10.6277</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>18843</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7651,10 +7651,10 @@
         <v>1727</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.9971</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>25900</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7673,10 +7673,10 @@
         <v>1647</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>16470</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>16470</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7695,10 +7695,10 @@
         <v>1730</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>18340</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>10.6012</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>18340</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>1570</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>15700</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>15700</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7739,10 +7739,10 @@
         <v>1680</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15650</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9.3155</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15650</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7761,10 +7761,10 @@
         <v>1750</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>15500</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8.857100000000001</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>15500</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7783,10 +7783,10 @@
         <v>1800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>15420</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8.566700000000001</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>15420</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7805,10 +7805,10 @@
         <v>1800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>15370</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.5389</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>15370</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7827,10 +7827,10 @@
         <v>1625</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13298</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.183399999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13298</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7849,10 +7849,10 @@
         <v>1600</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>13300</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.3125</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>13300</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7871,10 +7871,10 @@
         <v>1580</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13200</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.3544</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13200</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7893,10 +7893,10 @@
         <v>1580</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>13100</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>8.2911</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>13100</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7915,10 +7915,10 @@
         <v>1560</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.333299999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7937,10 +7937,10 @@
         <v>1560</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.333299999999999</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7959,10 +7959,10 @@
         <v>1550</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>12900</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.3226</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>12900</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7981,10 +7981,10 @@
         <v>1550</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>12800</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.258100000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>12800</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8003,10 +8003,10 @@
         <v>1530</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12700</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.300700000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12700</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         <v>1530</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12600</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.235299999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12600</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8045,10 +8045,10 @@
         <v>1500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.333299999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>12500</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>1480</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12400</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.378399999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12400</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8087,10 +8087,10 @@
         <v>1480</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12300</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.310799999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12300</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8108,10 +8108,10 @@
         <v>1450</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>12200</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8.413799999999998</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>12200</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8129,10 +8129,10 @@
         <v>1400</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8.571399999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8547,10 +8547,10 @@
         <v>47886</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1016834.74</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>21.2344</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1016834.74</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>428.74</v>
@@ -8569,10 +8569,10 @@
         <v>39581</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>737200.99</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>18.6252</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>737200.99</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8589,10 +8589,10 @@
         <v>37468</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>634368.16</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>16.9309</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>634368.16</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>149.07</v>
@@ -8611,10 +8611,10 @@
         <v>36602</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>620086.96</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>16.9415</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>620086.96</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>66.12</v>
@@ -8633,10 +8633,10 @@
         <v>42571</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>665652.11</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>15.6361</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>665652.11</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>35.89</v>
@@ -8655,10 +8655,10 @@
         <v>41732</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>644602.92</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>15.4462</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>644602.92</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>20.6</v>
@@ -8677,10 +8677,10 @@
         <v>41711</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>637688</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>15.2882</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>637688</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>42.12</v>
@@ -8699,10 +8699,10 @@
         <v>40125</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>601349.36</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>14.9869</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>601349.36</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>9.69</v>
@@ -8721,10 +8721,10 @@
         <v>39337</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>526438</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>13.3828</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>526438</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>21.99</v>
@@ -8743,10 +8743,10 @@
         <v>38780</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>513960.99</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>13.2532</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>513960.99</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.31</v>
@@ -8765,10 +8765,10 @@
         <v>38767</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>387546.03</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>9.996799999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>387546.03</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -8785,10 +8785,10 @@
         <v>33553</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>290011</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>8.6434</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>290011</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -8805,10 +8805,10 @@
         <v>31946</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>295080.75</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>9.2369</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>295080.75</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -8825,10 +8825,10 @@
         <v>31674</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>285590.13</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.016500000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>285590.13</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -8845,10 +8845,10 @@
         <v>21550</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>184357</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8.554799999999998</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>184357</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -8865,10 +8865,10 @@
         <v>17495</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>188139</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>10.7539</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>188139</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -8885,10 +8885,10 @@
         <v>20900</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>183468</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>8.7784</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>183468</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -8905,10 +8905,10 @@
         <v>21452</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>216378</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>10.0866</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>216378</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -8925,10 +8925,10 @@
         <v>15253</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>112706</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7.3891</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>112706</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -8945,10 +8945,10 @@
         <v>20577</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>220146.06</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>10.6986</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>220146.06</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -8965,10 +8965,10 @@
         <v>19735</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>273606</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13.864</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>273606</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -8985,10 +8985,10 @@
         <v>11383</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>147534</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>12.9609</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>147534</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -9005,10 +9005,10 @@
         <v>8704</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>111058</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12.7594</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>111058</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -9025,10 +9025,10 @@
         <v>6101</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>81736</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>13.3971</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>81736</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -9045,10 +9045,10 @@
         <v>6978</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>71158</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>10.1975</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>71158</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -9065,10 +9065,10 @@
         <v>6196</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>60019</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.6867</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>60019</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -9085,10 +9085,10 @@
         <v>3914</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>30972</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.9131</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>30972</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -9105,10 +9105,10 @@
         <v>7052</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11989</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.7001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11989</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -9125,10 +9125,10 @@
         <v>5907</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>48030</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.131</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>48030</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -9145,10 +9145,10 @@
         <v>2518</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>27197</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.801</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>27197</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -9165,10 +9165,10 @@
         <v>1667</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>12082</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>7.2478</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>12082</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -9185,10 +9185,10 @@
         <v>1494</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>11369</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7.6098</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>11369</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -9205,10 +9205,10 @@
         <v>1012</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>20803</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>20.5563</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>20803</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -9225,10 +9225,10 @@
         <v>1104</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7376</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6.6812</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7376</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -9245,10 +9245,10 @@
         <v>16000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>137150</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>8.571899999999999</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>137150</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -9265,10 +9265,10 @@
         <v>16000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>124890</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7.8056</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>124890</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -9285,10 +9285,10 @@
         <v>16000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>129490</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8.0931</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>129490</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9305,10 +9305,10 @@
         <v>16000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>132680</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8.2925</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>132680</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9325,10 +9325,10 @@
         <v>16000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>129031</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8.064399999999999</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>129031</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9342,10 +9342,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="n">
+      <c r="D51" s="29" t="n">
         <v>130996</v>
       </c>
+      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
         <v>2267</v>
@@ -9358,10 +9358,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="n">
+      <c r="D52" s="29" t="n">
         <v>138000</v>
       </c>
+      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
         <v>1342</v>
@@ -9374,10 +9374,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="n">
+      <c r="D53" s="29" t="n">
         <v>136000</v>
       </c>
+      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
         <v>943</v>
@@ -9390,10 +9390,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="n">
+      <c r="D54" s="29" t="n">
         <v>134000</v>
       </c>
+      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
         <v>1137</v>
@@ -9406,10 +9406,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="n">
+      <c r="D55" s="29" t="n">
         <v>124800</v>
       </c>
+      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
         <v>2750</v>
@@ -9422,10 +9422,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
+      <c r="D56" s="29" t="n">
         <v>138700</v>
       </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
         <v>1301</v>
@@ -9438,10 +9438,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
+      <c r="D57" s="29" t="n">
         <v>134782</v>
       </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
         <v>3535</v>
@@ -9454,10 +9454,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
+      <c r="D58" s="29" t="n">
         <v>133146</v>
       </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
         <v>2889</v>
@@ -9470,10 +9470,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
+      <c r="D59" s="29" t="n">
         <v>131512</v>
       </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
         <v>2607</v>
@@ -9486,10 +9486,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
+      <c r="D60" s="29" t="n">
         <v>129877</v>
       </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
         <v>2086</v>
@@ -9502,10 +9502,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
+      <c r="D61" s="29" t="n">
         <v>128242</v>
       </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
         <v>2421</v>
@@ -9518,10 +9518,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
+      <c r="D62" s="29" t="n">
         <v>126607</v>
       </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
         <v>2341</v>
@@ -9534,10 +9534,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
+      <c r="D63" s="29" t="n">
         <v>124972</v>
       </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
         <v>2040</v>
@@ -9550,10 +9550,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
+      <c r="D64" s="29" t="n">
         <v>123337</v>
       </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
         <v>2046</v>
@@ -9566,10 +9566,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
+      <c r="D65" s="29" t="n">
         <v>121702</v>
       </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
         <v>1568</v>
@@ -9582,10 +9582,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
+      <c r="D66" s="29" t="n">
         <v>120067</v>
       </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
         <v>999</v>
@@ -9598,10 +9598,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
+      <c r="D67" s="29" t="n">
         <v>118433</v>
       </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
         <v>460</v>
@@ -9614,10 +9614,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
+      <c r="D68" s="29" t="n">
         <v>116798</v>
       </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
         <v>634</v>
@@ -9629,10 +9629,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
+      <c r="D69" s="29" t="n">
         <v>115162</v>
       </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
         <v>856</v>
@@ -9644,10 +9644,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
+      <c r="D70" s="29" t="n">
         <v>116520</v>
       </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
         <v>343</v>
@@ -9659,10 +9659,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
+      <c r="D71" s="29" t="n">
         <v>115674</v>
       </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
         <v>230</v>
@@ -9674,10 +9674,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
+      <c r="D72" s="29" t="n">
         <v>109511</v>
       </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
         <v>215</v>
@@ -9689,10 +9689,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
+      <c r="D73" s="29" t="n">
         <v>107850</v>
       </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
         <v>264</v>
@@ -9704,10 +9704,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
+      <c r="D74" s="29" t="n">
         <v>106215</v>
       </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
         <v>353</v>
@@ -10040,7 +10040,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10119,10 +10119,10 @@
         <v>63078</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>982558.9399999999</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>15.5769</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>982558.9399999999</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -10139,10 +10139,10 @@
         <v>66152</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>861293.97</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13.0199</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>861293.97</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10159,10 +10159,10 @@
         <v>55382</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>776650.96</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>14.0236</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>776650.96</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.5</v>
@@ -10181,10 +10181,10 @@
         <v>51241</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>672232.24</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>13.1191</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>672232.24</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>13.56</v>
@@ -10203,10 +10203,10 @@
         <v>47905</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>571991.85</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>11.9401</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>571991.85</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>22.08</v>
@@ -10225,10 +10225,10 @@
         <v>41228</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>504839.74</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>12.2449</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>504839.74</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>47.15</v>
@@ -10247,10 +10247,10 @@
         <v>39629</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>466796</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>11.7792</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>466796</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>41.92</v>
@@ -10269,10 +10269,10 @@
         <v>37871</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>455394.17</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>12.0248</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>455394.17</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10289,10 +10289,10 @@
         <v>33590</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>367110</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10.9291</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>367110</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -10309,10 +10309,10 @@
         <v>30320</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>349317</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>11.521</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>349317</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10329,10 +10329,10 @@
         <v>25753</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>288387</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>11.1982</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>288387</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>21615</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>268525.27</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>12.423</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>268525.27</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10373,10 +10373,10 @@
         <v>19339</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>213662</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>11.0482</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>213662</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10395,10 +10395,10 @@
         <v>17750</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>184370</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10.387</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>184370</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>16292</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>157415</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>9.662100000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>157415</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>14370</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>136303</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.485200000000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>136303</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10461,10 +10461,10 @@
         <v>13603</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>121720</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>8.948</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>121720</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>404</v>
@@ -10483,10 +10483,10 @@
         <v>12528</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>113259</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9.0405</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>113259</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>22</v>
@@ -10505,10 +10505,10 @@
         <v>11762</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>103417</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>8.7925</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>103417</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10527,10 +10527,10 @@
         <v>11699</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>108460</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9.270899999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>108460</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10549,10 +10549,10 @@
         <v>11163</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>99975</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8.9559</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>99975</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10571,10 +10571,10 @@
         <v>10308</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>94236</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>9.141999999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>94236</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -10593,10 +10593,10 @@
         <v>10263</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>93459</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9.106399999999999</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>93459</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10615,10 +10615,10 @@
         <v>8748</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>83671</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>9.5646</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>83671</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10637,10 +10637,10 @@
         <v>8169</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>78037</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9.5528</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>78037</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>7814</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>67222</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>8.602799999999998</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>67222</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>34</v>
@@ -10681,10 +10681,10 @@
         <v>7246</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>72093</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>9.949399999999999</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>72093</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -10701,10 +10701,10 @@
         <v>7168</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>64408</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.9855</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>64408</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -10721,10 +10721,10 @@
         <v>6115</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>53145</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.690899999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>53145</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -10741,10 +10741,10 @@
         <v>6368</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>53112</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.3405</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>53112</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10761,10 +10761,10 @@
         <v>8159</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>92658</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>11.3565</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>92658</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -10781,10 +10781,10 @@
         <v>7828</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>96181</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>12.2868</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>96181</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -10801,10 +10801,10 @@
         <v>7710</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>85709</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11.1166</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>85709</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -10821,10 +10821,10 @@
         <v>7524</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>87928</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>11.6863</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>87928</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -10841,10 +10841,10 @@
         <v>7540</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>87318</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>11.5806</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>87318</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -10861,10 +10861,10 @@
         <v>7650</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>86200</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>11.268</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>86200</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -10881,10 +10881,10 @@
         <v>7674</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>83873</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.9295</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>83873</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -10901,10 +10901,10 @@
         <v>7265</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>80148</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>11.0321</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>80148</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -10921,10 +10921,10 @@
         <v>6823</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>70707</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>10.363</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>70707</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -10941,10 +10941,10 @@
         <v>7874</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>83012</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>10.5425</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>83012</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -10961,10 +10961,10 @@
         <v>7640</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>77556</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>10.1513</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>77556</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -10981,10 +10981,10 @@
         <v>7958</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>86107</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10.8202</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>86107</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -11001,10 +11001,10 @@
         <v>7656</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>77005</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>10.0581</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>77005</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -11021,10 +11021,10 @@
         <v>7718</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>73518</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9.525499999999999</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>73518</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11041,10 +11041,10 @@
         <v>9575</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>82606</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8.6273</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>82606</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11061,10 +11061,10 @@
         <v>9593</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>83480</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8.702200000000001</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>83480</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11081,10 +11081,10 @@
         <v>9580</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>83916</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8.759499999999999</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>83916</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11101,10 +11101,10 @@
         <v>9794</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>82938</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.468200000000001</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>82938</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11121,10 +11121,10 @@
         <v>9635</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>85788</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.903799999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>85788</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11141,10 +11141,10 @@
         <v>10825</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>104047</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9.611700000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>104047</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11161,10 +11161,10 @@
         <v>10827</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>104253</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9.629</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>104253</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11181,10 +11181,10 @@
         <v>10745</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>104904</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.7631</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>104904</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11201,10 +11201,10 @@
         <v>10888</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>96384</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.8523</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>96384</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11221,10 +11221,10 @@
         <v>10190</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>87396</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.576600000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>87396</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11241,10 +11241,10 @@
         <v>8980</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>66388</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>7.3929</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>66388</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11261,10 +11261,10 @@
         <v>6454</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>49053</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7.6004</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>49053</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11281,10 +11281,10 @@
         <v>5334</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>45305</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.493600000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>45305</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11300,10 +11300,10 @@
         <v>5420</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>46522</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.583399999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>46522</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11319,10 +11319,10 @@
         <v>4455</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>29815</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.6925</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>29815</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11338,10 +11338,10 @@
         <v>4630</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>23645</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5.1069</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>23645</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11357,10 +11357,10 @@
         <v>4400</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>22460</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5.1045</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>22460</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11376,10 +11376,10 @@
         <v>4100</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>20930</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5.1049</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>20930</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11395,10 +11395,10 @@
         <v>3900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>19910</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5.1051</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>19910</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11732,7 +11732,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11811,10 +11811,10 @@
         <v>65177</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>874046.49</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>13.4103</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>874046.49</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>64.65000000000001</v>
@@ -11833,10 +11833,10 @@
         <v>64555</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>866000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13.4149</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>866000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>52.01</v>
@@ -11855,10 +11855,10 @@
         <v>49853</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>669000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>13.4195</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>669000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>93.56999999999999</v>
@@ -11877,10 +11877,10 @@
         <v>45074</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>609049</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>13.5122</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>609049</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>87.92</v>
@@ -11899,10 +11899,10 @@
         <v>33959</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>461613</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>13.5934</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>461613</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>126.87</v>
@@ -11921,10 +11921,10 @@
         <v>30339</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>410084</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>13.5166</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>410084</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>122.11</v>
@@ -11943,10 +11943,10 @@
         <v>27008</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>363157</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>13.4461</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>363157</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>66.73999999999999</v>
@@ -11965,10 +11965,10 @@
         <v>22784</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>304938</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>13.3836</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>304938</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>9.029999999999999</v>
@@ -11987,10 +11987,10 @@
         <v>28429</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>382530</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>13.4557</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>382530</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7.4</v>
@@ -12009,10 +12009,10 @@
         <v>22372</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>307326</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>13.7369</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>307326</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1.66</v>
@@ -12031,10 +12031,10 @@
         <v>21027</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>289901</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>13.7869</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>289901</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12053,10 +12053,10 @@
         <v>20989</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>294200</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>14.0169</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>294200</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>52</v>
@@ -12075,10 +12075,10 @@
         <v>21653</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>275953</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>12.7443</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>275953</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>16</v>
@@ -12097,10 +12097,10 @@
         <v>20507</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>224278</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10.9367</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>224278</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>15</v>
@@ -12119,10 +12119,10 @@
         <v>19979</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>257642</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>12.8956</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>257642</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10</v>
@@ -12141,10 +12141,10 @@
         <v>19802</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>244215</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>12.3328</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>244215</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>35</v>
@@ -12163,10 +12163,10 @@
         <v>17224</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>201635</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>11.7066</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>201635</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>18</v>
@@ -12185,10 +12185,10 @@
         <v>15629</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>239463</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>15.3217</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>239463</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>19</v>
@@ -12207,10 +12207,10 @@
         <v>17133</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>227577</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>13.283</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>227577</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>19</v>
@@ -12229,10 +12229,10 @@
         <v>15536</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>221774</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>14.2748</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>221774</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>30</v>
@@ -12251,10 +12251,10 @@
         <v>17338</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>255959</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>14.7629</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>255959</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>43</v>
@@ -12273,10 +12273,10 @@
         <v>15769</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>238182</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>15.1044</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>238182</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>270</v>
@@ -12295,10 +12295,10 @@
         <v>11237</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>141703</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12.6104</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>141703</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>29</v>
@@ -12317,10 +12317,10 @@
         <v>13277</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>145795</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>10.981</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>145795</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>20.35</v>
@@ -12339,10 +12339,10 @@
         <v>11421</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>126104</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>11.0414</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>126104</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8</v>
@@ -12361,10 +12361,10 @@
         <v>12284</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>130950</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>10.6602</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>130950</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3</v>
@@ -12383,10 +12383,10 @@
         <v>11200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>129952</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>11.6029</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>129952</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>9</v>
@@ -12405,10 +12405,10 @@
         <v>19041</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>143151</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7.518</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>143151</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>15</v>
@@ -12427,10 +12427,10 @@
         <v>19377</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>162697</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.3964</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>162697</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>18</v>
@@ -12449,10 +12449,10 @@
         <v>14856</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>102037</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6.868399999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>102037</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>16</v>
@@ -12471,10 +12471,10 @@
         <v>19185</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>92721</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4.833</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>92721</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5</v>
@@ -12493,10 +12493,10 @@
         <v>27740</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>93267</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.3622</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>93267</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>3</v>
@@ -12515,10 +12515,10 @@
         <v>26879</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>91420</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3.4012</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>91420</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>21</v>
@@ -12537,10 +12537,10 @@
         <v>23830</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>84592</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3.5498</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>84592</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12559,10 +12559,10 @@
         <v>21709</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>61302</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.8238</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>61302</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12581,10 +12581,10 @@
         <v>20362</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>62520</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3.0704</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>62520</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12603,10 +12603,10 @@
         <v>14700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>56600</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3.8503</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>56600</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12625,10 +12625,10 @@
         <v>16500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>71100</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.3091</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>71100</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12647,10 +12647,10 @@
         <v>20030</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>62802</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3.1354</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>62802</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12669,10 +12669,10 @@
         <v>16897</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>58097</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.4383</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>58097</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12691,10 +12691,10 @@
         <v>15495</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>45745</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.9522</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>45745</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12713,10 +12713,10 @@
         <v>17000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>51465</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.0274</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>51465</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12735,10 +12735,10 @@
         <v>15259</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>72192</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4.731100000000001</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>72192</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12757,10 +12757,10 @@
         <v>10600</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>46373</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.3748</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>46373</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12779,10 +12779,10 @@
         <v>9098</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>39019</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.2887</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>39019</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12801,10 +12801,10 @@
         <v>13958</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>47000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>3.3672</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>47000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12823,10 +12823,10 @@
         <v>15315</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>57600</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3.761</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>57600</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12845,10 +12845,10 @@
         <v>11000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>44000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>44000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1</v>
@@ -12867,10 +12867,10 @@
         <v>7500</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>55800</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>7.44</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>55800</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -12889,10 +12889,10 @@
         <v>7800</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>55400</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>7.102600000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>55400</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -12911,10 +12911,10 @@
         <v>7000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>5.714300000000001</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>40000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -12933,10 +12933,10 @@
         <v>6000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>6</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>36000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -12955,10 +12955,10 @@
         <v>4000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>7</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>28000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -12977,10 +12977,10 @@
         <v>6000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.5</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>33000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -12999,10 +12999,10 @@
         <v>6500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6.1538</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>40000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13021,10 +13021,10 @@
         <v>7000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7.1429</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13043,10 +13043,10 @@
         <v>7000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7.1429</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13064,10 +13064,10 @@
         <v>7000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7.1429</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13085,10 +13085,10 @@
         <v>6300</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5.5556</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>35000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13106,10 +13106,10 @@
         <v>6300</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5.5556</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>35000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13127,10 +13127,10 @@
         <v>5500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5.4545</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>30000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13148,10 +13148,10 @@
         <v>5500</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5.4545</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>30000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13169,10 +13169,10 @@
         <v>5500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5.4545</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>30000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
